--- a/src/test/java/com/swaglab/data/product/ProductTestData.xlsx
+++ b/src/test/java/com/swaglab/data/product/ProductTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -31,13 +31,25 @@
     <t>standard_user</t>
   </si>
   <si>
-    <t>ascending</t>
+    <t>ascendingByName</t>
   </si>
   <si>
     <t>PRODUCT002</t>
   </si>
   <si>
-    <t>descending</t>
+    <t>descendingByName</t>
+  </si>
+  <si>
+    <t>PRODUCT003</t>
+  </si>
+  <si>
+    <t>ascendingByPrice</t>
+  </si>
+  <si>
+    <t>PRODUCT004</t>
+  </si>
+  <si>
+    <t>descendingByPrice</t>
   </si>
 </sst>
 </file>
@@ -392,7 +404,7 @@
   <cols>
     <col min="1" max="1" style="2" width="16.862142857142857" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="26.14785714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -433,15 +445,27 @@
       <c r="D3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="1"/>
     </row>
   </sheetData>

--- a/src/test/java/com/swaglab/data/product/ProductTestData.xlsx
+++ b/src/test/java/com/swaglab/data/product/ProductTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -25,6 +25,9 @@
     <t>DisplayOrder</t>
   </si>
   <si>
+    <t>ProductNames</t>
+  </si>
+  <si>
     <t>PRODUCT001</t>
   </si>
   <si>
@@ -50,6 +53,18 @@
   </si>
   <si>
     <t>descendingByPrice</t>
+  </si>
+  <si>
+    <t>PRODUCT005</t>
+  </si>
+  <si>
+    <t>Sauce Labs Backpack</t>
+  </si>
+  <si>
+    <t>PRODUCT006</t>
+  </si>
+  <si>
+    <t>Sauce Labs Bolt T-Shirt,Sauce Labs Onesie</t>
   </si>
 </sst>
 </file>
@@ -396,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -405,7 +420,8 @@
     <col min="1" max="1" style="2" width="16.862142857142857" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="27.14785714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="42.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -418,55 +434,116 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
